--- a/data/자격시험수험자리스트_1101.xlsx
+++ b/data/자격시험수험자리스트_1101.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25906"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BD3D3F1-647F-49DA-9381-ABBE78B76D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\ncloud-certification-rpa\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15877784-C2BE-41C8-A441-457B46868C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2655" windowWidth="28800" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="111">
   <si>
     <t>응시일자</t>
   </si>
@@ -361,19 +366,13 @@
   </si>
   <si>
     <t>이무표</t>
-  </si>
-  <si>
-    <t>dl_edu_cert@navercorp.com</t>
-  </si>
-  <si>
-    <t>dl_certification@navercorp.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,6 +406,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -648,7 +654,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -947,10 +953,10 @@
   <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="20.5" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
@@ -958,7 +964,7 @@
     <col min="12" max="12" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1000,7 +1006,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>20221101</v>
       </c>
@@ -1030,7 +1036,7 @@
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>20221101</v>
       </c>
@@ -1060,7 +1066,7 @@
       <c r="M3" s="7"/>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>20221101</v>
       </c>
@@ -1090,7 +1096,7 @@
       <c r="M4" s="7"/>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>20221101</v>
       </c>
@@ -1120,7 +1126,7 @@
       <c r="M5" s="7"/>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>20221101</v>
       </c>
@@ -1150,7 +1156,7 @@
       <c r="M6" s="7"/>
       <c r="N6" s="8"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>20221101</v>
       </c>
@@ -1180,7 +1186,7 @@
       <c r="M7" s="7"/>
       <c r="N7" s="8"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>20221101</v>
       </c>
@@ -1210,7 +1216,7 @@
       <c r="M8" s="7"/>
       <c r="N8" s="8"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>20221101</v>
       </c>
@@ -1240,7 +1246,7 @@
       <c r="M9" s="7"/>
       <c r="N9" s="8"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>20221101</v>
       </c>
@@ -1270,7 +1276,7 @@
       <c r="M10" s="7"/>
       <c r="N10" s="8"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>20221101</v>
       </c>
@@ -1300,7 +1306,7 @@
       <c r="M11" s="7"/>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>20221101</v>
       </c>
@@ -1330,7 +1336,7 @@
       <c r="M12" s="7"/>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>20221101</v>
       </c>
@@ -1360,7 +1366,7 @@
       <c r="M13" s="7"/>
       <c r="N13" s="8"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>20221101</v>
       </c>
@@ -1390,7 +1396,7 @@
       <c r="M14" s="7"/>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>20221101</v>
       </c>
@@ -1420,7 +1426,7 @@
       <c r="M15" s="7"/>
       <c r="N15" s="8"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>20221101</v>
       </c>
@@ -1450,7 +1456,7 @@
       <c r="M16" s="7"/>
       <c r="N16" s="8"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>20221101</v>
       </c>
@@ -1480,7 +1486,7 @@
       <c r="M17" s="7"/>
       <c r="N17" s="8"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>20221101</v>
       </c>
@@ -1510,7 +1516,7 @@
       <c r="M18" s="7"/>
       <c r="N18" s="8"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>20221101</v>
       </c>
@@ -1540,7 +1546,7 @@
       <c r="M19" s="7"/>
       <c r="N19" s="8"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>20221101</v>
       </c>
@@ -1570,7 +1576,7 @@
       <c r="M20" s="7"/>
       <c r="N20" s="8"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20221101</v>
       </c>
@@ -1600,7 +1606,7 @@
       <c r="M21" s="7"/>
       <c r="N21" s="8"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>20221101</v>
       </c>
@@ -1630,7 +1636,7 @@
       <c r="M22" s="7"/>
       <c r="N22" s="8"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>20221101</v>
       </c>
@@ -1660,7 +1666,7 @@
       <c r="M23" s="7"/>
       <c r="N23" s="8"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>20221101</v>
       </c>
@@ -1690,7 +1696,7 @@
       <c r="M24" s="7"/>
       <c r="N24" s="8"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>20221101</v>
       </c>
@@ -1720,7 +1726,7 @@
       <c r="M25" s="7"/>
       <c r="N25" s="8"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>20221101</v>
       </c>
@@ -1750,7 +1756,7 @@
       <c r="M26" s="7"/>
       <c r="N26" s="8"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>20221101</v>
       </c>
@@ -1780,7 +1786,7 @@
       <c r="M27" s="7"/>
       <c r="N27" s="8"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>20221101</v>
       </c>
@@ -1810,7 +1816,7 @@
       <c r="M28" s="7"/>
       <c r="N28" s="8"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>20221101</v>
       </c>
@@ -1840,7 +1846,7 @@
       <c r="M29" s="7"/>
       <c r="N29" s="8"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>20221101</v>
       </c>
@@ -1870,7 +1876,7 @@
       <c r="M30" s="7"/>
       <c r="N30" s="8"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>20221101</v>
       </c>
@@ -1900,7 +1906,7 @@
       <c r="M31" s="7"/>
       <c r="N31" s="8"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>20221101</v>
       </c>
@@ -1930,7 +1936,7 @@
       <c r="M32" s="7"/>
       <c r="N32" s="8"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>20221101</v>
       </c>
@@ -1960,7 +1966,7 @@
       <c r="M33" s="7"/>
       <c r="N33" s="8"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>20221101</v>
       </c>
@@ -1990,7 +1996,7 @@
       <c r="M34" s="7"/>
       <c r="N34" s="8"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>20221101</v>
       </c>
@@ -2020,7 +2026,7 @@
       <c r="M35" s="7"/>
       <c r="N35" s="8"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>20221101</v>
       </c>
@@ -2050,7 +2056,7 @@
       <c r="M36" s="7"/>
       <c r="N36" s="8"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>20221101</v>
       </c>
@@ -2080,7 +2086,7 @@
       <c r="M37" s="7"/>
       <c r="N37" s="8"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>20221101</v>
       </c>
@@ -2110,7 +2116,7 @@
       <c r="M38" s="7"/>
       <c r="N38" s="8"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>20221101</v>
       </c>
@@ -2140,7 +2146,7 @@
       <c r="M39" s="7"/>
       <c r="N39" s="8"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>20221101</v>
       </c>
@@ -2170,7 +2176,7 @@
       <c r="M40" s="7"/>
       <c r="N40" s="8"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>20221101</v>
       </c>
@@ -2200,7 +2206,7 @@
       <c r="M41" s="7"/>
       <c r="N41" s="8"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>20221101</v>
       </c>
@@ -2230,7 +2236,7 @@
       <c r="M42" s="7"/>
       <c r="N42" s="8"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>20221101</v>
       </c>
@@ -2260,7 +2266,7 @@
       <c r="M43" s="7"/>
       <c r="N43" s="8"/>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>20221101</v>
       </c>
@@ -2290,7 +2296,7 @@
       <c r="M44" s="7"/>
       <c r="N44" s="8"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>20221101</v>
       </c>
@@ -2320,7 +2326,7 @@
       <c r="M45" s="7"/>
       <c r="N45" s="8"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>20221101</v>
       </c>
@@ -2350,7 +2356,7 @@
       <c r="M46" s="7"/>
       <c r="N46" s="8"/>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>20221101</v>
       </c>
@@ -2380,7 +2386,7 @@
       <c r="M47" s="7"/>
       <c r="N47" s="8"/>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>20221101</v>
       </c>
@@ -2410,7 +2416,7 @@
       <c r="M48" s="7"/>
       <c r="N48" s="8"/>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>20221101</v>
       </c>
@@ -2440,7 +2446,7 @@
       <c r="M49" s="7"/>
       <c r="N49" s="8"/>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>20221101</v>
       </c>
@@ -2470,7 +2476,7 @@
       <c r="M50" s="7"/>
       <c r="N50" s="8"/>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>20221101</v>
       </c>
@@ -2500,7 +2506,7 @@
       <c r="M51" s="7"/>
       <c r="N51" s="8"/>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>20221101</v>
       </c>
@@ -2530,7 +2536,7 @@
       <c r="M52" s="7"/>
       <c r="N52" s="8"/>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>20221101</v>
       </c>
@@ -2560,7 +2566,7 @@
       <c r="M53" s="7"/>
       <c r="N53" s="8"/>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>20221101</v>
       </c>
@@ -2590,7 +2596,7 @@
       <c r="M54" s="7"/>
       <c r="N54" s="8"/>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>20221101</v>
       </c>
@@ -2620,7 +2626,7 @@
       <c r="M55" s="7"/>
       <c r="N55" s="8"/>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>20221101</v>
       </c>
@@ -2650,7 +2656,7 @@
       <c r="M56" s="7"/>
       <c r="N56" s="8"/>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>20221101</v>
       </c>
@@ -2680,7 +2686,7 @@
       <c r="M57" s="7"/>
       <c r="N57" s="8"/>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>20221101</v>
       </c>
@@ -2710,7 +2716,7 @@
       <c r="M58" s="7"/>
       <c r="N58" s="8"/>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>20221101</v>
       </c>
@@ -2740,7 +2746,7 @@
       <c r="M59" s="7"/>
       <c r="N59" s="8"/>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>20221101</v>
       </c>
@@ -2770,7 +2776,7 @@
       <c r="M60" s="7"/>
       <c r="N60" s="8"/>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>20221101</v>
       </c>
@@ -2800,7 +2806,7 @@
       <c r="M61" s="7"/>
       <c r="N61" s="8"/>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -2812,13 +2818,11 @@
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
-      <c r="L62" s="7" t="s">
-        <v>111</v>
-      </c>
+      <c r="L62" s="7"/>
       <c r="M62" s="7"/>
       <c r="N62" s="9"/>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="10"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -2830,13 +2834,12 @@
       <c r="I63" s="11"/>
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
-      <c r="L63" s="11" t="s">
-        <v>112</v>
-      </c>
+      <c r="L63" s="11"/>
       <c r="M63" s="11"/>
       <c r="N63" s="12"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="D2:D61">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
@@ -2882,5 +2885,6 @@
     <hyperlink ref="C54" r:id="rId39" xr:uid="{659F3FB4-AA7F-4769-9659-5991FB7D4D71}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>
 </worksheet>
 </file>